--- a/biology/Histoire de la zoologie et de la botanique/Gotthilf_Heinrich_von_Schubert/Gotthilf_Heinrich_von_Schubert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gotthilf_Heinrich_von_Schubert/Gotthilf_Heinrich_von_Schubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gotthilf Heinrich von Schubert est un naturaliste allemand, né le 26 avril 1780 à Hohenstein et mort le 1er juillet 1860 à Laufzorn (commune de Oberhaching). C'est l'un des premiers représentants du courant romantique de la psychologie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il exerce la médecine à Altenbourg et enseigne à Erlangen et à Munich. Il est l’auteur d'ouvrages de botanique et de sciences naturelles : Handbuch der Naturgeschichte (1813 à 1823), Symbolik des Traums (1814), Altes und Neues aus den Gebiete der inneren Seeienkunde (cinq volumes, 1817 à 1844), Die Krankheiten und Störungen der menschlichen Seele (1845) et Vermischten Schriften (deux volumes, 1856-1860) et avec Johann Andreas Wagner (1797-1861) de Neues systematisches Conchylien-Cabinet (1829).
 De 1816 à 1819, il fut précepteur des enfants de Frédéric de Mecklembourg-Schwerin; en 1859 il publia des souvenirs sur Hélène de Mecklembourg-Schwerin, accompagnés de quelques lettres de la duchesse destinées à Schubert.
 Maximilian Perty collabore avec lui à la fin des années 1820 à la collection zoologique de l'Académie royale des sciences de Bavière.
-En 1837, il est le premier avec son compagnon de voyage Johannes Roth, à relever que le niveau de la mer Morte est de plusieurs centaines de mètres au-dessous de celui de la Méditerranée[1].
+En 1837, il est le premier avec son compagnon de voyage Johannes Roth, à relever que le niveau de la mer Morte est de plusieurs centaines de mètres au-dessous de celui de la Méditerranée.
 Ses Mémoires furent publiés en quatre volumes de 1854 à 1856 sous le titre Der Erwerb aus einem vergangenen und die Erwartungen von einem zukünftigen Leben.
 </t>
         </is>
